--- a/data/stanza_supported_languages.xlsx
+++ b/data/stanza_supported_languages.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Supported_Languages" sheetId="1" r:id="rId1"/>
     <sheet name="langtable" sheetId="2" r:id="rId2"/>
+    <sheet name="test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="182">
   <si>
     <t>af</t>
   </si>
@@ -515,13 +516,64 @@
   </si>
   <si>
     <t>nlp_langid</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>@AmericanAir just landed - 3hours Late Flight - and now we need to wait TWENTY MORE MINUTES for a gate! I have patience but none for incompetence.</t>
+  </si>
+  <si>
+    <t>High quality pants. Very comfortable and great for sport activities. Good price for nice quality! I recommend to all fans of sports</t>
+  </si>
+  <si>
+    <t>NlP function</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Language Detecion</t>
+  </si>
+  <si>
+    <t>["Hello world.", "हैलो पायथन लवर्स!","Привет, любители Python!", "Hej Pythonälskare!","Bonjour les amoureux de Python !","Hallo Python-liefhebbers!","¡Hola, amantes de Python!","こんにちはPython愛好家！","안녕하세요 파이썬 애호가!"]</t>
+  </si>
+  <si>
+    <t>Chris Manning teaches at Stanford University. He lives in the Bay Area.</t>
+  </si>
+  <si>
+    <t>Named Entity Recognition</t>
+  </si>
+  <si>
+    <t>Dependency Parsing</t>
+  </si>
+  <si>
+    <t>We have reached the end of the trail。</t>
+  </si>
+  <si>
+    <t>Barack Obama was born in Hawaii.</t>
+  </si>
+  <si>
+    <t>Lemmatization</t>
+  </si>
+  <si>
+    <t>Part-of-Speech &amp; Morphological Features</t>
+  </si>
+  <si>
+    <t>Multi-Word Token (MWT) Expansion</t>
+  </si>
+  <si>
+    <t>This is a test sentence for stanza. This is another sentence.</t>
+  </si>
+  <si>
+    <t>Tokenization &amp; Sentence Segmentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +603,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF27262B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -588,11 +653,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,7 +946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1619,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1744,7 +1825,7 @@
         <v>154</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>155</v>
@@ -1804,6 +1885,122 @@
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="74" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
